--- a/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
+++ b/DbLayouts/L8-遵循法令作業/MlaundryDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FD47C-2C55-4907-AF05-80C9771120A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4D05A-6992-4F37-84BF-D92061694303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,13 +257,25 @@
   <si>
     <t>findbyDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagerCheckDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管覆核日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管第二次覆核時顯示欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +350,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -426,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +550,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -883,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -901,10 +935,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
@@ -916,8 +950,8 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -929,10 +963,10 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="15" t="s">
         <v>47</v>
       </c>
@@ -944,10 +978,10 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="13"/>
@@ -955,10 +989,10 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
       <c r="E5" s="13"/>
@@ -966,10 +1000,10 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
       <c r="E6" s="13"/>
@@ -977,10 +1011,10 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
@@ -1147,131 +1181,161 @@
       <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="19">
-        <v>8</v>
-      </c>
-      <c r="F16" s="27"/>
+      <c r="B16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="19">
+        <v>8</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="33">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="37">
+        <v>8</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>24</v>
+      <c r="B19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="26">
-        <v>8</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="33">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E20" s="26">
-        <v>6</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E21" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
       <c r="B22" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="26">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>15</v>
+      </c>
+      <c r="B23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E23" s="26">
         <v>6</v>
       </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1293,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
